--- a/Dissertation_MSc_SoftwareEngineering_2025/Cargo/car_micro.xlsx
+++ b/Dissertation_MSc_SoftwareEngineering_2025/Cargo/car_micro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Achilles/dissertation/24007552/Dissertation_MSc_SoftwareEngineering_2025/Cargo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71711C46-3F8B-5343-AFDE-75921EE777AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E830C23-4587-B34F-93DC-4C6CFCC61459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32960" yWindow="1900" windowWidth="27700" windowHeight="18060" xr2:uid="{7E49E7C0-BAE5-AE4D-B98A-3A401E6115C0}"/>
   </bookViews>
@@ -594,7 +594,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
